--- a/Assets/StreamingAssets/VisualNovel/Story/MainStory/Chapter 0/Clip 0_zh.xlsx
+++ b/Assets/StreamingAssets/VisualNovel/Story/MainStory/Chapter 0/Clip 0_zh.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$91</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="125">
   <si>
     <t>Name/姓名</t>
   </si>
@@ -76,7 +79,7 @@
     <t>CharacterImage_3/立绘3图片名</t>
   </si>
   <si>
-    <t>...</t>
+    <t>...城市，金币</t>
   </si>
   <si>
     <t>rain</t>
@@ -217,9 +220,8 @@
     <t>没有公交了？这场暴雨有这么大吗？</t>
   </si>
   <si>
-    <t xml:space="preserve">原本急促猛烈的雨滴瞬间变得稀稀落落，
-砸在地面的声响也从密集的 “噼里啪啦” 变成了偶尔的 “滴答” 声。
-</t>
+    <t>原本急促猛烈的雨滴瞬间变得稀稀落落，
+砸在地面的声响也从密集的 “噼里啪啦” 变成了偶尔的 “滴答” 声。</t>
   </si>
   <si>
     <t>与此同时，天空中那厚重如墨、压得人喘不过气的乌云，
@@ -230,6 +232,216 @@
   </si>
   <si>
     <t>雨...停了？</t>
+  </si>
+  <si>
+    <t>爸？妈？我回来了。</t>
+  </si>
+  <si>
+    <t>他的声音在空荡的房间中回荡，却无人回应。</t>
+  </si>
+  <si>
+    <t>手指摸索着墙上的开关，按下后灯泡发出微弱的"滋滋"声，却没有亮起。</t>
+  </si>
+  <si>
+    <t>田逸尘皱起眉头，从口袋中取出手机，打开手电筒功能。
+光束穿过客厅，照亮了墙上悬挂的全家福相框。</t>
+  </si>
+  <si>
+    <t>他停下脚步，呼吸凝固——
+照片中三个兽人的面部全都被某种未知物质侵蚀，
+只留下模糊不清的空洞。</t>
+  </si>
+  <si>
+    <t>EMO 2</t>
+  </si>
+  <si>
+    <t>不是污渍，不是破损，而是照片本身发生了变化，
+仿佛他们的面部从未存在过。</t>
+  </si>
+  <si>
+    <t>田逸尘的尾巴紧绷，本能地感到一阵恐惧爬上脊背。</t>
+  </si>
+  <si>
+    <t>家中的寂静被某种不连贯的声响打破——从浴室方向传来的异常声音，
+像金属刮擦混合着某种湿润的声响。</t>
+  </si>
+  <si>
+    <t>他强迫自己迈步向浴室走去，每一步都像踏在棉花上，
+不真实且不稳定。</t>
+  </si>
+  <si>
+    <t>手电筒的光线照亮走廊，墙上的阴影似乎比应有的更加浓重，
+而且以不符合物理规律的方式蠕动。</t>
+  </si>
+  <si>
+    <t>浴室门半开着，从门缝中透出一丝不自然的昏黄光线。</t>
+  </si>
+  <si>
+    <t>田逸尘推开门，发现浴室的排风扇正不规则地转动，
+扇叶间缠绕着某种暗色物质，随着转动发出不协调的声音。</t>
+  </si>
+  <si>
+    <t>应该...应该...只是风扇坏了吧......</t>
+  </si>
+  <si>
+    <t>田逸尘安慰着自己，但是他颤抖的声音却无法掩饰内心的不安。</t>
+  </si>
+  <si>
+    <t>洗手池上方的镜子反射着微弱的光线，
+田逸尘走近，拧开水龙头，
+冰冷的水流过爪间。</t>
+  </si>
+  <si>
+    <t>他低头下，接了一捧水泼在脸上，冷水浸湿皮毛，
+似乎这样就能缓解紧张的神经。</t>
+  </si>
+  <si>
+    <t>擦掉脸上的水渍，抬起头，镜中倒映出自己湿漉漉的面孔——
+然而，就在他与镜中自己四目相对的瞬间，
+镜中的"田逸尘"脸上浮现出一个不属于他的表情。</t>
+  </si>
+  <si>
+    <t>像是幻觉，但又真实到田逸尘感到一阵冰冷侵袭全身，他想要后退，
+却发现自己无法移动分毫。</t>
+  </si>
+  <si>
+    <t>镜中的"他"缓慢地抬起爪子，按在镜面内侧，
+镜面开始出现细微的裂痕，像蛛网般向外扩散。</t>
+  </si>
+  <si>
+    <t>从裂缝中渗出的不是玻璃碎片，而是一种黑色的、半凝固状的物质，
+正如相框中照片上呈现的那种侵蚀痕迹。</t>
+  </si>
+  <si>
+    <t>这些黑色物质开始快速流动，在镜面上形成扭曲的字迹：
+《你永远无法摆脱我，因为我就是你》</t>
+  </si>
+  <si>
+    <t>与此同时，田逸尘感觉到身后有什么东西正在接近，但他依然无法转身，
+只能通过镜子看到浴室门缓慢关闭，门外的黑暗中，
+无数双发光的眼睛正凝视着他。</t>
+  </si>
+  <si>
+    <t>……什么东西？</t>
+  </si>
+  <si>
+    <t>耳朵因为警惕而竖起。
+他的灰色毛发在浴室灯光下闪着微光，眼睛紧盯着镜子。。</t>
+  </si>
+  <si>
+    <t>镜子里的反光已经不正常了。
+他的倒影扭曲变形，镜面泛起涟漪，
+仿佛有什么东西要从另一边穿越过来。</t>
+  </si>
+  <si>
+    <t>这...这不可能...</t>
+  </si>
+  <si>
+    <t>黑色液体越来越多，在镜子表面汇聚成一个模糊的轮廓，
+隐约能辨认出人形的特征。</t>
+  </si>
+  <si>
+    <t>一种冰冷刺骨的感觉从镜子中散发出来，
+田逸尘感到自己的呼吸在变得困难，寒意侵入骨髓。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">突然，那团黑色液体猛地伸出一只如同水流般的手臂，直接抓向田逸尘。
+</t>
+  </si>
+  <si>
+    <t>犬族青年躲闪不及，被那冰冷的触感碰到了脸颊。
+刹那间，无数陌生的记忆碎片和感受涌入脑海，
+如洪水般冲击着他的意识。</t>
+  </si>
+  <si>
+    <t>咳...这是...</t>
+  </si>
+  <si>
+    <t>田逸尘踉跄后退，大脑一片混乱，眼前浮现出洪水吞没城市的画面，
+无数生命在水中挣扎哀嚎。</t>
+  </si>
+  <si>
+    <t>这些并非他的记忆，却如此真实地在脑海中回荡。
+他感到一阵眩晕，双腿发软，倒在了浴室冰冷的地砖上。</t>
+  </si>
+  <si>
+    <t>黑色液体完全脱离镜面，在空中形成一个模糊的人形轮廓，缓缓向昏迷的田逸尘飘去。</t>
+  </si>
+  <si>
+    <t>appearAt(2000,0)</t>
+  </si>
+  <si>
+    <t>水之鬼</t>
+  </si>
+  <si>
+    <t>第...三...纪元...罪孽...</t>
+  </si>
+  <si>
+    <t>浴室窗户突然被猛地推开，一道银色身影敏捷地跃入室内。</t>
+  </si>
+  <si>
+    <t>果然在这里！</t>
+  </si>
+  <si>
+    <t>moveTo(500,0)</t>
+  </si>
+  <si>
+    <t>狐族看到倒在地上的田逸尘和漂浮在空中的黑色人形，立刻摆出战斗姿态，
+一把银色手枪旋转着出现在他的手中。</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>住手！滚回你来的地方去！</t>
+  </si>
+  <si>
+    <t>不...干...涉...猎物...我的...</t>
+  </si>
+  <si>
+    <t>白毛狐族迅速举起手枪瞄准向水之鬼射去。
+黑色液体发出刺耳的嘶鸣，形体被子弹击中后暂时散开，但很快又重新凝聚。</t>
+  </si>
+  <si>
+    <t>狐族兽人趁机跃至田逸尘身边，查看他的状况。
+田逸尘呼吸微弱，身体不断颤抖，似乎陷入了某种噩梦。</t>
+  </si>
+  <si>
+    <t>moveTo(-600,0)</t>
+  </si>
+  <si>
+    <t>喂！醒醒！别被它的记忆吞噬了！</t>
+  </si>
+  <si>
+    <t>田逸尘在噩梦中挣扎，他仿佛置身于无尽的黑暗水域中。</t>
+  </si>
+  <si>
+    <t>四周是沉没的建筑和漂浮的尸体，远处有模糊的哭喊声回荡。</t>
+  </si>
+  <si>
+    <t>这是...哪里？</t>
+  </si>
+  <si>
+    <t>一个声音从遥远的地方传来，打破了水下的寂静。</t>
+  </si>
+  <si>
+    <t>醒来！这不是你的记忆！这是水之鬼的幻象！醒来！</t>
+  </si>
+  <si>
+    <t>田逸尘猛地睁开眼睛，发现自己躺在浴室地板上，白毛狐族正俯身看着他。
+而在狐族身后，那团黑色液体正在不断变形，试图再次攻击。</t>
+  </si>
+  <si>
+    <t>你是...什么人？那东西又是什么？</t>
+  </si>
+  <si>
+    <t>没时间解释了！它随时会再次攻击！你能站起来吗？</t>
+  </si>
+  <si>
+    <t>田逸尘挣扎着坐起，头脑仍然混沌不清，但危机感使他迅速恢复了警觉。</t>
+  </si>
+  <si>
+    <t>我试试...</t>
   </si>
   <si>
     <t>END</t>
@@ -245,18 +457,28 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -463,19 +685,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599994"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399976"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,19 +709,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599994"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399976"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,19 +733,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599994"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399976"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,19 +757,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599994"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399976"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,19 +781,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599994"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399976"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,19 +805,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599994"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399976"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,7 +859,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.499985"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,165 +933,198 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -924,7 +1179,221 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1183,17 +1652,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.3636363636364" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.5454545454545" style="3" customWidth="1"/>
-    <col min="3" max="8" width="26.2727272727273" style="2" customWidth="1"/>
+    <col min="3" max="8" width="26.2636363636364" style="2" customWidth="1"/>
     <col min="9" max="9" width="21.7272727272727" style="2" customWidth="1"/>
     <col min="10" max="10" width="40.1818181818182" style="2" customWidth="1"/>
     <col min="11" max="11" width="38.5454545454545" style="2" customWidth="1"/>
@@ -1204,388 +1673,792 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17.5" spans="1:15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="2:9">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" ht="28" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" ht="70" spans="2:11">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N23" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="N25" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" ht="56" spans="2:2">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="N27" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="N28" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="N29" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" ht="42" spans="1:14">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" ht="70" spans="2:9">
-      <c r="B32" s="4" t="s">
+    <row r="32" ht="56" spans="2:9">
+      <c r="B32" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" ht="56" spans="2:2">
-      <c r="B33" s="4" t="s">
+    <row r="33" ht="56" spans="2:9">
+      <c r="B33" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2" t="s">
+    <row r="36" customFormat="1" spans="1:15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" customFormat="1" spans="1:15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="J38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" ht="28" spans="2:2">
+      <c r="B39" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" ht="28" spans="2:2">
+      <c r="B40" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" ht="56" spans="2:2">
+      <c r="B41" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" ht="56" spans="2:9">
+      <c r="B42" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" ht="42" spans="2:2">
+      <c r="B43" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" ht="42" spans="2:2">
+      <c r="B45" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" ht="42" spans="2:2">
+      <c r="B46" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" ht="42" spans="2:2">
+      <c r="B47" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" ht="56" spans="2:2">
+      <c r="B49" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" ht="42" spans="2:2">
+      <c r="B52" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" ht="42" spans="2:2">
+      <c r="B53" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" ht="84" spans="2:2">
+      <c r="B54" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" ht="42" spans="2:2">
+      <c r="B55" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" ht="56" spans="2:2">
+      <c r="B56" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" ht="56" spans="2:2">
+      <c r="B57" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" ht="42" spans="2:2">
+      <c r="B58" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" ht="70" spans="2:2">
+      <c r="B59" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" ht="42" spans="2:2">
+      <c r="B61" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" ht="42" spans="1:7">
+      <c r="A62" s="10"/>
+      <c r="B62" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" ht="42" spans="1:2">
+      <c r="A64" s="10"/>
+      <c r="B64" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" ht="56" spans="1:2">
+      <c r="A65" s="10"/>
+      <c r="B65" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" ht="42" spans="2:2">
+      <c r="B66" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" ht="70" spans="1:2">
+      <c r="A67" s="12"/>
+      <c r="B67" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" ht="42" spans="2:2">
+      <c r="B69" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" ht="56" spans="2:2">
+      <c r="B70" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="10"/>
+      <c r="B71" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="N72" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" ht="42" spans="1:2">
+      <c r="A75" s="10"/>
+      <c r="B75" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" ht="56" spans="1:2">
+      <c r="A78" s="10"/>
+      <c r="B78" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" ht="56" spans="1:14">
+      <c r="A79" s="10"/>
+      <c r="B79" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="10"/>
+      <c r="B81" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="14"/>
+      <c r="B82" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" ht="56" spans="2:2">
+      <c r="B86" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:O91" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1602,7 +2475,6 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1619,7 +2491,6 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/StreamingAssets/VisualNovel/Story/MainStory/Chapter 0/Clip 0_zh.xlsx
+++ b/Assets/StreamingAssets/VisualNovel/Story/MainStory/Chapter 0/Clip 0_zh.xlsx
@@ -79,7 +79,7 @@
     <t>CharacterImage_3/立绘3图片名</t>
   </si>
   <si>
-    <t>...城市，金币</t>
+    <t>...</t>
   </si>
   <si>
     <t>rain</t>
@@ -1078,7 +1078,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1103,14 +1103,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1118,11 +1121,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1654,8 +1660,8 @@
   <sheetPr/>
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A35" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2225,51 +2231,51 @@
       <c r="A60" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="61" ht="42" spans="2:2">
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="62" ht="42" spans="1:7">
-      <c r="A62" s="10"/>
-      <c r="B62" s="9" t="s">
+      <c r="A62" s="11"/>
+      <c r="B62" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="8"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="64" ht="42" spans="1:2">
-      <c r="A64" s="10"/>
-      <c r="B64" s="9" t="s">
+      <c r="A64" s="11"/>
+      <c r="B64" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="65" ht="56" spans="1:2">
-      <c r="A65" s="10"/>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="11"/>
+      <c r="B65" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="66" ht="42" spans="2:2">
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="67" ht="70" spans="1:2">
-      <c r="A67" s="12"/>
-      <c r="B67" s="9" t="s">
+      <c r="A67" s="13"/>
+      <c r="B67" s="10" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2277,23 +2283,23 @@
       <c r="A68" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="69" ht="42" spans="2:2">
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="70" ht="56" spans="2:2">
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="10"/>
-      <c r="B71" s="8" t="s">
+      <c r="A71" s="11"/>
+      <c r="B71" s="9" t="s">
         <v>99</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -2307,16 +2313,16 @@
       <c r="A72" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C72" s="10"/>
+      <c r="C72" s="14"/>
       <c r="N72" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="73" spans="2:14">
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>103</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -2327,7 +2333,7 @@
       <c r="A74" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="9" t="s">
         <v>104</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -2335,8 +2341,8 @@
       </c>
     </row>
     <row r="75" ht="42" spans="1:2">
-      <c r="A75" s="10"/>
-      <c r="B75" s="9" t="s">
+      <c r="A75" s="11"/>
+      <c r="B75" s="10" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2344,7 +2350,7 @@
       <c r="A76" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2352,19 +2358,19 @@
       <c r="A77" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="78" ht="56" spans="1:2">
-      <c r="A78" s="10"/>
-      <c r="B78" s="13" t="s">
+      <c r="A78" s="11"/>
+      <c r="B78" s="15" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="79" ht="56" spans="1:14">
-      <c r="A79" s="10"/>
-      <c r="B79" s="9" t="s">
+      <c r="A79" s="11"/>
+      <c r="B79" s="10" t="s">
         <v>111</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -2375,7 +2381,7 @@
       <c r="A80" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="9" t="s">
         <v>113</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -2383,14 +2389,14 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="10"/>
-      <c r="B81" s="8" t="s">
+      <c r="A81" s="11"/>
+      <c r="B81" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="14"/>
-      <c r="B82" s="8" t="s">
+      <c r="A82" s="16"/>
+      <c r="B82" s="9" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2398,12 +2404,12 @@
       <c r="A83" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2411,12 +2417,12 @@
       <c r="A85" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="86" ht="56" spans="2:2">
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="17" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2424,7 +2430,7 @@
       <c r="A87" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="9" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2432,12 +2438,12 @@
       <c r="A88" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="9" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2445,7 +2451,7 @@
       <c r="A90" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="9" t="s">
         <v>123</v>
       </c>
     </row>
